--- a/システム概要.xlsx
+++ b/システム概要.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ハッカソン\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Hackathon-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A60FC-0F8A-4256-AF38-8E6F2AC6D9D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2005FEF8-C96A-47DB-8543-FECB440FC384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6020" xr2:uid="{00581A3F-9EF9-4CF7-BF7C-86F61142D2AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{00581A3F-9EF9-4CF7-BF7C-86F61142D2AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,16 +93,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>39687</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396081</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>143669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>186531</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>18257</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -116,9 +116,9 @@
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11239500" y="2373312"/>
-          <a:ext cx="1238250" cy="460375"/>
+        <a:xfrm rot="3746902">
+          <a:off x="10669587" y="2366963"/>
+          <a:ext cx="1246188" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -150,7 +150,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>記事投稿ボタン</a:t>
+            <a:t>記事更新リンク</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -236,8 +236,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2103438" y="887413"/>
-          <a:ext cx="1039812" cy="550862"/>
+          <a:off x="2127250" y="882650"/>
+          <a:ext cx="1047750" cy="546100"/>
           <a:chOff x="2108200" y="882650"/>
           <a:chExt cx="1041400" cy="546100"/>
         </a:xfrm>
@@ -455,13 +455,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>307993</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>181545</xdr:rowOff>
+      <xdr:rowOff>219643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
+      <xdr:colOff>377825</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>138292</xdr:rowOff>
+      <xdr:rowOff>138291</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -476,10 +476,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6896118" y="411733"/>
-          <a:ext cx="1349357" cy="647309"/>
-          <a:chOff x="6896118" y="411733"/>
-          <a:chExt cx="1349357" cy="647309"/>
+          <a:off x="6975493" y="448243"/>
+          <a:ext cx="1403332" cy="604448"/>
+          <a:chOff x="6896118" y="450114"/>
+          <a:chExt cx="1387014" cy="608928"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -540,7 +540,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="20852087">
-            <a:off x="6918325" y="411733"/>
+            <a:off x="6955982" y="450114"/>
             <a:ext cx="1327150" cy="328423"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -570,7 +570,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>編集ボタン</a:t>
+              <a:t>編集リンク</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -916,8 +916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4492625" y="1239838"/>
-          <a:ext cx="1327150" cy="539561"/>
+          <a:off x="4540250" y="1231900"/>
+          <a:ext cx="1343025" cy="536386"/>
           <a:chOff x="4492625" y="1239838"/>
           <a:chExt cx="1327150" cy="539561"/>
         </a:xfrm>
@@ -1024,13 +1024,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>20414</xdr:rowOff>
+      <xdr:rowOff>20413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>206944</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152780</xdr:rowOff>
+      <xdr:rowOff>153659</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1045,10 +1045,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6772275" y="1401539"/>
-          <a:ext cx="1340419" cy="592741"/>
+          <a:off x="6851650" y="1392013"/>
+          <a:ext cx="1356294" cy="590446"/>
           <a:chOff x="6772275" y="1401539"/>
-          <a:chExt cx="1340419" cy="592741"/>
+          <a:chExt cx="1340419" cy="593626"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1109,8 +1109,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="1289463">
-            <a:off x="6772275" y="1665857"/>
-            <a:ext cx="1327150" cy="328423"/>
+            <a:off x="6772275" y="1664973"/>
+            <a:ext cx="1327150" cy="330192"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1139,9 +1139,12 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>リンクを踏む</a:t>
+              <a:t>記事一覧</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>nav</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1234,8 +1237,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2641600" y="1871091"/>
-          <a:ext cx="1327150" cy="747713"/>
+          <a:off x="2673350" y="1858391"/>
+          <a:ext cx="1343025" cy="742950"/>
           <a:chOff x="2641600" y="1871091"/>
           <a:chExt cx="1327150" cy="747713"/>
         </a:xfrm>
@@ -1422,8 +1425,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4397375" y="612775"/>
-          <a:ext cx="1327150" cy="564961"/>
+          <a:off x="4445000" y="609600"/>
+          <a:ext cx="1343025" cy="560198"/>
           <a:chOff x="4397375" y="612775"/>
           <a:chExt cx="1327150" cy="564961"/>
         </a:xfrm>
@@ -1516,7 +1519,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>削除ボタン押す</a:t>
+              <a:t>削除リンク押す</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -1527,16 +1530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>173038</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>46037</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1551,8 +1554,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10580688" y="960438"/>
-          <a:ext cx="917575" cy="1157287"/>
+          <a:off x="10174288" y="773113"/>
+          <a:ext cx="925512" cy="1149349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,7 +1609,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>記事投稿・編集画面</a:t>
+            <a:t>記事編集画面</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -1620,16 +1623,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>74613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1644,8 +1647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10463213" y="3009901"/>
-          <a:ext cx="917575" cy="1157287"/>
+          <a:off x="10706100" y="3046413"/>
+          <a:ext cx="933450" cy="1149350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1737,8 +1740,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="609874">
-          <a:off x="9350378" y="2476500"/>
-          <a:ext cx="1327150" cy="517723"/>
+          <a:off x="9461503" y="2460625"/>
+          <a:ext cx="1343025" cy="512960"/>
           <a:chOff x="9302752" y="1984375"/>
           <a:chExt cx="1327150" cy="517723"/>
         </a:xfrm>
@@ -1842,135 +1845,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657207</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>18555</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="38" name="グループ化 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746183A8-EF78-49BB-BD05-C38A638ED951}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9221770" y="1523999"/>
-          <a:ext cx="1327150" cy="566244"/>
-          <a:chOff x="6696075" y="514919"/>
-          <a:chExt cx="1327150" cy="566244"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="矢印: 右 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41227CAC-C853-4CAE-8B39-7DF4E9B668C0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="20828386">
-            <a:off x="6899279" y="816771"/>
-            <a:ext cx="959041" cy="264392"/>
-          </a:xfrm>
-          <a:prstGeom prst="rightArrow">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="テキスト ボックス 39">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8133390E-A6E7-4A4E-8832-934F995365E1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="20852087">
-            <a:off x="6696075" y="514919"/>
-            <a:ext cx="1327150" cy="328423"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>記事投稿リンク</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476252</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -2172,8 +2046,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5618162" y="458788"/>
-          <a:ext cx="2605088" cy="3509962"/>
+          <a:off x="5681662" y="457200"/>
+          <a:ext cx="2636838" cy="3484562"/>
           <a:chOff x="5530850" y="331788"/>
           <a:chExt cx="2605088" cy="3509962"/>
         </a:xfrm>
@@ -2340,7 +2214,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>・編集ボタン</a:t>
+              <a:t>・編集リンク</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
@@ -2348,7 +2222,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>・削除ボタン</a:t>
+              <a:t>・削除リンク</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
@@ -2364,7 +2238,7 @@
             <a:pPr algn="l"/>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
-              <a:t>・グループ作成ボタン</a:t>
+              <a:t>・グループ作成リンク</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
           </a:p>
@@ -2502,15 +2376,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:colOff>200023</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>148992</xdr:rowOff>
+      <xdr:rowOff>25167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>145893</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>441167</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2524,9 +2398,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="10874974" y="2458205"/>
-          <a:ext cx="708257" cy="233207"/>
+        <a:xfrm rot="3792799">
+          <a:off x="10636847" y="2313743"/>
+          <a:ext cx="703495" cy="241144"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2562,15 +2436,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>464753</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>24057</xdr:rowOff>
+      <xdr:colOff>302284</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>163838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>372185</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>15079</xdr:rowOff>
+      <xdr:colOff>152244</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3058</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2584,11 +2458,11 @@
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
-        <a:xfrm rot="17009722">
-          <a:off x="10174177" y="2268509"/>
-          <a:ext cx="911772" cy="566244"/>
-          <a:chOff x="6696075" y="514919"/>
-          <a:chExt cx="1327150" cy="566244"/>
+        <a:xfrm rot="15439387">
+          <a:off x="9956479" y="2339693"/>
+          <a:ext cx="1210820" cy="516710"/>
+          <a:chOff x="6444804" y="509508"/>
+          <a:chExt cx="1774796" cy="509566"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -2604,7 +2478,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm rot="20828386">
-            <a:off x="6899279" y="816771"/>
+            <a:off x="6934347" y="754682"/>
             <a:ext cx="959041" cy="264392"/>
           </a:xfrm>
           <a:prstGeom prst="rightArrow">
@@ -2648,9 +2522,9 @@
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
-          <a:xfrm rot="20852087">
-            <a:off x="6696075" y="514919"/>
-            <a:ext cx="1327150" cy="328423"/>
+          <a:xfrm rot="9854512">
+            <a:off x="6444804" y="509508"/>
+            <a:ext cx="1774796" cy="323883"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2679,7 +2553,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>記事投稿リンク</a:t>
+              <a:t>記事編集リンク</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
           </a:p>
@@ -2714,8 +2588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="5192766">
-          <a:off x="8395621" y="3336918"/>
-          <a:ext cx="1518439" cy="586888"/>
+          <a:off x="8508334" y="3308342"/>
+          <a:ext cx="1507326" cy="594826"/>
           <a:chOff x="6693820" y="494275"/>
           <a:chExt cx="1518439" cy="586888"/>
         </a:xfrm>
@@ -2808,9 +2682,12 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>グループ一覧リンク</a:t>
+              <a:t>グループ一覧</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>nav</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2932,6 +2809,374 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179388</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37B6694-8283-49FF-BE19-6BB7F8B8015E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12180888" y="1027113"/>
+          <a:ext cx="925512" cy="1149349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規投稿</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>519113</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="グループ化 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD7D2AD-7812-4A6C-BF8B-7E458EC6EF0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm rot="17877113">
+          <a:off x="11658600" y="2409824"/>
+          <a:ext cx="914400" cy="523874"/>
+          <a:chOff x="12220575" y="295275"/>
+          <a:chExt cx="914400" cy="523874"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矢印: 右 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A8B17F-2703-411E-9A48-060ABC62EBA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12296775" y="295275"/>
+            <a:ext cx="533400" cy="171450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="テキスト ボックス 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD5FF2A-14FF-4568-A1AD-CFDFEC9FF319}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12220575" y="504824"/>
+            <a:ext cx="914400" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>投稿</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>nav	</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>439548</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>20154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>212083</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="グループ化 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923A69A4-ADAA-42DF-9A0D-7B34335E89CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12441048" y="2306154"/>
+          <a:ext cx="498664" cy="1334929"/>
+          <a:chOff x="12441048" y="2306154"/>
+          <a:chExt cx="498664" cy="1334929"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="矢印: 右 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD41152-332C-47D4-932C-7458E24EAD35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="7246197">
+            <a:off x="11865098" y="2882104"/>
+            <a:ext cx="1334929" cy="183030"/>
+          </a:xfrm>
+          <a:prstGeom prst="rightArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="テキスト ボックス 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EDBC80E-E14A-444C-A0F9-C089607D5527}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="17989406">
+            <a:off x="12287249" y="2952751"/>
+            <a:ext cx="990601" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>投稿したら</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3240,9 +3485,9 @@
       <selection activeCell="B1" sqref="B1:T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3263,7 +3508,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3284,7 +3529,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3305,7 +3550,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3326,7 +3571,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3347,7 +3592,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3368,7 +3613,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3389,7 +3634,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3410,7 +3655,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3431,7 +3676,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3452,7 +3697,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3473,7 +3718,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -3494,7 +3739,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -3515,7 +3760,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3536,7 +3781,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -3557,7 +3802,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -3578,7 +3823,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -3599,7 +3844,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3620,7 +3865,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -3641,7 +3886,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -3662,7 +3907,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -3683,7 +3928,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3704,7 +3949,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3725,7 +3970,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
